--- a/sources/Modèle-audit-SEO.xlsx
+++ b/sources/Modèle-audit-SEO.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001" calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,33 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème identifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explication du problème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonne pratique à adopter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action recommandée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problèmes avec les metadonnés du site</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Problème identifié</t>
+  </si>
+  <si>
+    <t>Explication du problème</t>
+  </si>
+  <si>
+    <t>Bonne pratique à adopter</t>
+  </si>
+  <si>
+    <t>Action recommandée</t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Problèmes avec les metadonnés du site</t>
   </si>
   <si>
     <t xml:space="preserve">Pas de titre et de description dans les meta du site  langue du site parametrée sur “Default” ce qui ne veut rien dire </t>
@@ -55,43 +55,118 @@
     <t xml:space="preserve">Mots clés du site </t>
   </si>
   <si>
-    <t xml:space="preserve">Mot clés pas optimisés, doublon de mots, et hors sujet     Div “keyword” invisible dans le body pour le réferencement qui ne sert à rien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.seo-hero.tech/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balises inutiles (&lt;br&gt; en fin de div,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème de couleur des  textes</t>
+    <t>Mot clés pas optimisés, doublon de mots, et hors sujet     Div “keyword” invisible dans le body pour le réferencement qui ne sert à rien</t>
+  </si>
+  <si>
+    <t>http://www.seo-hero.tech/</t>
+  </si>
+  <si>
+    <t>Balises inutiles (&lt;br&gt; en fin de div,</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Problème de couleur des  textes</t>
   </si>
   <si>
     <t xml:space="preserve">Certains textes sont à peine visibles à cause de la couleur de fond qui as une teinte similaire </t>
   </si>
   <si>
-    <t xml:space="preserve">SEO et accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation abusive des images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certains paragraphes sont affiché sur le site grâce à une image, ce qui allourdi innutilement le site, empeche les robot de découvrir tout le contenu du site et rend impossible le responsive sur ces paragraphes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liens mort dans le footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans le footer il y a une list avec a l’intérieure uniquement des liens mort qui ne sont pas du tout apréciés des robot de google et qui encombres le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sources incorrectes dans le head de la page contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les noms de fichiers sont mal écris et donc ne sont pas lu par le navigateur</t>
+    <t>SEO et accessibilité</t>
+  </si>
+  <si>
+    <t>Utilisation abusive des images</t>
+  </si>
+  <si>
+    <t>Certains paragraphes sont affiché sur le site grâce à une image, ce qui allourdi innutilement le site, empeche les robot de découvrir tout le contenu du site et rend impossible le responsive sur ces paragraphes</t>
+  </si>
+  <si>
+    <t>Liens mort dans le footer</t>
+  </si>
+  <si>
+    <t>Dans le footer il y a une list avec a l’intérieure uniquement des liens mort qui ne sont pas du tout apréciés des robot de google et qui encombres le site</t>
+  </si>
+  <si>
+    <t>sources incorrectes dans le head de la page contact</t>
+  </si>
+  <si>
+    <t>Les noms de fichiers sont mal écris et donc ne sont pas lu par le navigateur</t>
+  </si>
+  <si>
+    <t>Pas d'outils pour la gersion de performances et l'optimisation SEO</t>
+  </si>
+  <si>
+    <t>Pas d'outils de gersion de performances et d'optimisation SEO</t>
+  </si>
+  <si>
+    <t>Ajouter google Analytics et google Search Console à votre site permettrais de connaitre l'état de santé du site web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun outil de gestion </t>
+  </si>
+  <si>
+    <t>Pas d'outils de gestion de performances et d'optimisation SEO</t>
+  </si>
+  <si>
+    <t>Beaucoup de problèmes que j'ai trouvé sur le site aurait pu être évité grace à des outils comme Google Search Console et Google Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaucoup de problèmes que j'ai trouvé sur le site aurait pu être évité grace à des outils comme Google Search Console et Google Analytics </t>
+  </si>
+  <si>
+    <t>https://support.google.com/webmasters/answer/9128668?hl=fr</t>
+  </si>
+  <si>
+    <t>https://rootsteps.nl/en/blog/deadlinks-on-your-website-and-why-you-should-search-for-them-regularly</t>
+  </si>
+  <si>
+    <t>Toujours rendre le texte lisible pour les bots d'indexation, donc ne pas afficher un texte sur une image car il sera illisible pour ce bot</t>
+  </si>
+  <si>
+    <t>https://raddinteractive.com/2828-2/</t>
+  </si>
+  <si>
+    <t>SEO et vitesse</t>
+  </si>
+  <si>
+    <t>Vitesse et taille</t>
+  </si>
+  <si>
+    <t>Vitesse et taille du site</t>
+  </si>
+  <si>
+    <t>Fichier inutiles qui rendent lourd le site inutilement</t>
+  </si>
+  <si>
+    <t>Dans le footer il y a une liste avec a l’intérieure uniquement des liens mort qui ne sont pas du tout apréciés des robot de google et qui encombres le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y a des images dans le dossier img qui ne sont pas utlilisés, </t>
+  </si>
+  <si>
+    <t>Fichier image pas optimisés</t>
+  </si>
+  <si>
+    <t>Il y a des images dans le dossier img qui ne sont pas utlilisés, ou d'autres qui ne sont pas ua bon format ou pas compressés</t>
+  </si>
+  <si>
+    <t>https://color.a11y.com/</t>
+  </si>
+  <si>
+    <t>https://color.a11y.com/Contrast/</t>
+  </si>
+  <si>
+    <t>ALT des images non renseignée</t>
+  </si>
+  <si>
+    <t>Mausaise utilisation des ALT pour les images</t>
+  </si>
+  <si>
+    <t>Les alt ont été remplis avec des mots clés ce qui ne fait aucun sens et n'aide pas pour l'accessibilité et même le référencement</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents</t>
   </si>
 </sst>
 </file>
@@ -101,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -190,6 +265,17 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -239,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,6 +365,62 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -359,22 +501,1039 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29"/>
+    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="81" min="81" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="82" min="82" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="83" min="83" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="85" min="85" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="87" min="87" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="88" min="88" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="90" min="90" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="91" min="91" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="95" min="95" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="97" min="97" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="98" min="98" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="99" min="99" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="100" min="100" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="101" min="101" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="102" min="102" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="103" min="103" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="105" min="105" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="106" min="106" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="107" min="107" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="108" min="108" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="109" min="109" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="110" min="110" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="111" min="111" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="112" min="112" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="113" min="113" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="114" min="114" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="115" min="115" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="116" min="116" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="117" min="117" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="118" min="118" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="119" min="119" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="120" min="120" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="121" min="121" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="122" min="122" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="123" min="123" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="124" min="124" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="125" min="125" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="126" min="126" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="127" min="127" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="128" min="128" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="129" min="129" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="130" min="130" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="131" min="131" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="132" min="132" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="133" min="133" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="134" min="134" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="135" min="135" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="136" min="136" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="137" min="137" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="138" min="138" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="139" min="139" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="140" min="140" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="141" min="141" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="142" min="142" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="143" min="143" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="144" min="144" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="145" min="145" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="146" min="146" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="147" min="147" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="148" min="148" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="149" min="149" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="150" min="150" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="151" min="151" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="152" min="152" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="153" min="153" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="154" min="154" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="155" min="155" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="156" min="156" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="157" min="157" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="158" min="158" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="159" min="159" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="160" min="160" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="161" min="161" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="162" min="162" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="163" min="163" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="164" min="164" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="165" min="165" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="166" min="166" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="167" min="167" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="168" min="168" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="169" min="169" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="170" min="170" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="171" min="171" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="172" min="172" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="173" min="173" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="174" min="174" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="175" min="175" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="176" min="176" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="177" min="177" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="178" min="178" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="179" min="179" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="180" min="180" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="181" min="181" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="182" min="182" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="183" min="183" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="184" min="184" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="185" min="185" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="186" min="186" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="187" min="187" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="188" min="188" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="189" min="189" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="190" min="190" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="191" min="191" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="192" min="192" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="193" min="193" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="194" min="194" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="195" min="195" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="196" min="196" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="197" min="197" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="198" min="198" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="199" min="199" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="200" min="200" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="201" min="201" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="202" min="202" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="203" min="203" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="204" min="204" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="205" min="205" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="206" min="206" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="207" min="207" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="208" min="208" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="209" min="209" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="210" min="210" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="211" min="211" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="212" min="212" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="213" min="213" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="214" min="214" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="215" min="215" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="216" min="216" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="217" min="217" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="218" min="218" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="219" min="219" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="220" min="220" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="221" min="221" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="222" min="222" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="223" min="223" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="224" min="224" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="225" min="225" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="226" min="226" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="227" min="227" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="228" min="228" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="229" min="229" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="230" min="230" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="231" min="231" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="232" min="232" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="233" min="233" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="234" min="234" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="235" min="235" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="236" min="236" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="237" min="237" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="238" min="238" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="239" min="239" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="240" min="240" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="241" min="241" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="242" min="242" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="243" min="243" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="244" min="244" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="245" min="245" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="246" min="246" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="247" min="247" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="248" min="248" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="249" min="249" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="250" min="250" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="251" min="251" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="252" min="252" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="253" min="253" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="254" min="254" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="255" min="255" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="256" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="257" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="258" min="258" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="259" min="259" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="260" min="260" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="261" min="261" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="262" min="262" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="263" min="263" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="264" min="264" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="265" min="265" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="266" min="266" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="267" min="267" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="268" min="268" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="269" min="269" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="270" min="270" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="271" min="271" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="272" min="272" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="273" min="273" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="274" min="274" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="275" min="275" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="276" min="276" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="277" min="277" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="278" min="278" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="279" min="279" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="280" min="280" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="281" min="281" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="282" min="282" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="283" min="283" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="284" min="284" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="285" min="285" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="286" min="286" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="287" min="287" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="288" min="288" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="289" min="289" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="290" min="290" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="291" min="291" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="292" min="292" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="293" min="293" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="294" min="294" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="295" min="295" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="296" min="296" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="297" min="297" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="298" min="298" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="299" min="299" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="300" min="300" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="301" min="301" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="302" min="302" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="303" min="303" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="304" min="304" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="305" min="305" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="306" min="306" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="307" min="307" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="308" min="308" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="309" min="309" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="310" min="310" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="311" min="311" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="312" min="312" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="313" min="313" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="314" min="314" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="315" min="315" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="316" min="316" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="317" min="317" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="318" min="318" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="319" min="319" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="320" min="320" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="321" min="321" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="322" min="322" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="323" min="323" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="324" min="324" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="325" min="325" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="326" min="326" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="327" min="327" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="328" min="328" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="329" min="329" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="330" min="330" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="331" min="331" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="332" min="332" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="333" min="333" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="334" min="334" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="335" min="335" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="336" min="336" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="337" min="337" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="338" min="338" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="339" min="339" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="340" min="340" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="341" min="341" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="342" min="342" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="343" min="343" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="344" min="344" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="345" min="345" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="346" min="346" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="347" min="347" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="348" min="348" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="349" min="349" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="350" min="350" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="351" min="351" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="352" min="352" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="353" min="353" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="354" min="354" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="355" min="355" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="356" min="356" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="357" min="357" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="358" min="358" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="359" min="359" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="360" min="360" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="361" min="361" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="362" min="362" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="363" min="363" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="364" min="364" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="365" min="365" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="366" min="366" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="367" min="367" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="368" min="368" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="369" min="369" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="370" min="370" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="371" min="371" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="372" min="372" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="373" min="373" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="374" min="374" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="375" min="375" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="376" min="376" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="377" min="377" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="378" min="378" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="379" min="379" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="380" min="380" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="381" min="381" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="382" min="382" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="383" min="383" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="384" min="384" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="385" min="385" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="386" min="386" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="387" min="387" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="388" min="388" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="389" min="389" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="390" min="390" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="391" min="391" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="392" min="392" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="393" min="393" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="394" min="394" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="395" min="395" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="396" min="396" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="397" min="397" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="398" min="398" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="399" min="399" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="400" min="400" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="401" min="401" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="402" min="402" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="403" min="403" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="404" min="404" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="405" min="405" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="406" min="406" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="407" min="407" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="408" min="408" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="409" min="409" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="410" min="410" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="411" min="411" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="412" min="412" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="413" min="413" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="414" min="414" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="415" min="415" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="416" min="416" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="417" min="417" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="418" min="418" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="419" min="419" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="420" min="420" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="421" min="421" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="422" min="422" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="423" min="423" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="424" min="424" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="425" min="425" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="426" min="426" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="427" min="427" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="428" min="428" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="429" min="429" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="430" min="430" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="431" min="431" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="432" min="432" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="433" min="433" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="434" min="434" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="435" min="435" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="436" min="436" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="437" min="437" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="438" min="438" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="439" min="439" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="440" min="440" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="441" min="441" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="442" min="442" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="443" min="443" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="444" min="444" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="445" min="445" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="446" min="446" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="447" min="447" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="448" min="448" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="449" min="449" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="450" min="450" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="451" min="451" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="452" min="452" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="453" min="453" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="454" min="454" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="455" min="455" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="456" min="456" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="457" min="457" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="458" min="458" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="459" min="459" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="460" min="460" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="461" min="461" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="462" min="462" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="463" min="463" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="464" min="464" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="465" min="465" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="466" min="466" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="467" min="467" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="468" min="468" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="469" min="469" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="470" min="470" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="471" min="471" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="472" min="472" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="473" min="473" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="474" min="474" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="475" min="475" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="476" min="476" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="477" min="477" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="478" min="478" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="479" min="479" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="480" min="480" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="481" min="481" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="482" min="482" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="483" min="483" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="484" min="484" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="485" min="485" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="486" min="486" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="487" min="487" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="488" min="488" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="489" min="489" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="490" min="490" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="491" min="491" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="492" min="492" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="493" min="493" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="494" min="494" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="495" min="495" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="496" min="496" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="497" min="497" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="498" min="498" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="499" min="499" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="500" min="500" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="501" min="501" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="502" min="502" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="503" min="503" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="504" min="504" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="505" min="505" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="506" min="506" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="507" min="507" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="508" min="508" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="509" min="509" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="510" min="510" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="511" min="511" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="512" min="512" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="513" min="513" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="514" min="514" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="515" min="515" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="516" min="516" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="517" min="517" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="518" min="518" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="519" min="519" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="520" min="520" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="521" min="521" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="522" min="522" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="523" min="523" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="524" min="524" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="525" min="525" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="526" min="526" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="527" min="527" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="528" min="528" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="529" min="529" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="530" min="530" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="531" min="531" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="532" min="532" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="533" min="533" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="534" min="534" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="535" min="535" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="536" min="536" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="537" min="537" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="538" min="538" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="539" min="539" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="540" min="540" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="541" min="541" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="542" min="542" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="543" min="543" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="544" min="544" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="545" min="545" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="546" min="546" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="547" min="547" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="548" min="548" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="549" min="549" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="550" min="550" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="551" min="551" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="552" min="552" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="553" min="553" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="554" min="554" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="555" min="555" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="556" min="556" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="557" min="557" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="558" min="558" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="559" min="559" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="560" min="560" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="561" min="561" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="562" min="562" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="563" min="563" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="564" min="564" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="565" min="565" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="566" min="566" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="567" min="567" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="568" min="568" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="569" min="569" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="570" min="570" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="571" min="571" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="572" min="572" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="573" min="573" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="574" min="574" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="575" min="575" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="576" min="576" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="577" min="577" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="578" min="578" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="579" min="579" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="580" min="580" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="581" min="581" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="582" min="582" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="583" min="583" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="584" min="584" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="585" min="585" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="586" min="586" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="587" min="587" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="588" min="588" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="589" min="589" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="590" min="590" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="591" min="591" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="592" min="592" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="593" min="593" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="594" min="594" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="595" min="595" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="596" min="596" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="597" min="597" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="598" min="598" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="599" min="599" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="600" min="600" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="601" min="601" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="602" min="602" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="603" min="603" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="604" min="604" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="605" min="605" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="606" min="606" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="607" min="607" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="608" min="608" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="609" min="609" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="610" min="610" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="611" min="611" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="612" min="612" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="613" min="613" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="614" min="614" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="615" min="615" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="616" min="616" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="617" min="617" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="618" min="618" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="619" min="619" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="620" min="620" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="621" min="621" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="622" min="622" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="623" min="623" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="624" min="624" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="625" min="625" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="626" min="626" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="627" min="627" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="628" min="628" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="629" min="629" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="630" min="630" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="631" min="631" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="632" min="632" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="633" min="633" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="634" min="634" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="635" min="635" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="636" min="636" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="637" min="637" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="638" min="638" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="639" min="639" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="640" min="640" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="641" min="641" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="642" min="642" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="643" min="643" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="644" min="644" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="645" min="645" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="646" min="646" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="647" min="647" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="648" min="648" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="649" min="649" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="650" min="650" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="651" min="651" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="652" min="652" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="653" min="653" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="654" min="654" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="655" min="655" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="656" min="656" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="657" min="657" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="658" min="658" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="659" min="659" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="660" min="660" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="661" min="661" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="662" min="662" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="663" min="663" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="664" min="664" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="665" min="665" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="666" min="666" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="667" min="667" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="668" min="668" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="669" min="669" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="670" min="670" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="671" min="671" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="672" min="672" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="673" min="673" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="674" min="674" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="675" min="675" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="676" min="676" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="677" min="677" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="678" min="678" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="679" min="679" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="680" min="680" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="681" min="681" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="682" min="682" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="683" min="683" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="684" min="684" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="685" min="685" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="686" min="686" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="687" min="687" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="688" min="688" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="689" min="689" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="690" min="690" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="691" min="691" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="692" min="692" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="693" min="693" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="694" min="694" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="695" min="695" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="696" min="696" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="697" min="697" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="698" min="698" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="699" min="699" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="700" min="700" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="701" min="701" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="702" min="702" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="703" min="703" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="704" min="704" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="705" min="705" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="706" min="706" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="707" min="707" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="708" min="708" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="709" min="709" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="710" min="710" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="711" min="711" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="712" min="712" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="713" min="713" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="714" min="714" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="715" min="715" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="716" min="716" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="717" min="717" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="718" min="718" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="719" min="719" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="720" min="720" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="721" min="721" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="722" min="722" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="723" min="723" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="724" min="724" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="725" min="725" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="726" min="726" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="727" min="727" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="728" min="728" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="729" min="729" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="730" min="730" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="731" min="731" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="732" min="732" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="733" min="733" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="734" min="734" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="735" min="735" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="736" min="736" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="737" min="737" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="738" min="738" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="739" min="739" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="740" min="740" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="741" min="741" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="742" min="742" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="743" min="743" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="744" min="744" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="745" min="745" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="746" min="746" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="747" min="747" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="748" min="748" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="749" min="749" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="750" min="750" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="751" min="751" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="752" min="752" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="753" min="753" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="754" min="754" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="755" min="755" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="756" min="756" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="757" min="757" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="758" min="758" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="759" min="759" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="760" min="760" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="761" min="761" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="762" min="762" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="763" min="763" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="764" min="764" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="765" min="765" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="766" min="766" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="767" min="767" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="768" min="768" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="769" min="769" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="770" min="770" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="771" min="771" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="772" min="772" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="773" min="773" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="774" min="774" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="775" min="775" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="776" min="776" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="777" min="777" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="778" min="778" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="779" min="779" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="780" min="780" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="781" min="781" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="782" min="782" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="783" min="783" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="784" min="784" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="785" min="785" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="786" min="786" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="787" min="787" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="788" min="788" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="789" min="789" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="790" min="790" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="791" min="791" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="792" min="792" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="793" min="793" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="794" min="794" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="795" min="795" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="796" min="796" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="797" min="797" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="798" min="798" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="799" min="799" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="800" min="800" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="801" min="801" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="802" min="802" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="803" min="803" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="804" min="804" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="805" min="805" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="806" min="806" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="807" min="807" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="808" min="808" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="809" min="809" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="810" min="810" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="811" min="811" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="812" min="812" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="813" min="813" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="814" min="814" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="815" min="815" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="816" min="816" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="817" min="817" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="818" min="818" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="819" min="819" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="820" min="820" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="821" min="821" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="822" min="822" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="823" min="823" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="824" min="824" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="825" min="825" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="826" min="826" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="827" min="827" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="828" min="828" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="829" min="829" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="830" min="830" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="831" min="831" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="832" min="832" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="833" min="833" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="834" min="834" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="835" min="835" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="836" min="836" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="837" min="837" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="838" min="838" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="839" min="839" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="840" min="840" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="841" min="841" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="842" min="842" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="843" min="843" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="844" min="844" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="845" min="845" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="846" min="846" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="847" min="847" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="848" min="848" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="849" min="849" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="850" min="850" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="851" min="851" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="852" min="852" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="853" min="853" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="854" min="854" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="855" min="855" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="856" min="856" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="857" min="857" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="858" min="858" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="859" min="859" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="860" min="860" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="861" min="861" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="862" min="862" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="863" min="863" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="864" min="864" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="865" min="865" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="866" min="866" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="867" min="867" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="868" min="868" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="869" min="869" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="870" min="870" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="871" min="871" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="872" min="872" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="873" min="873" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="874" min="874" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="875" min="875" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="876" min="876" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="877" min="877" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="878" min="878" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="879" min="879" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="880" min="880" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="881" min="881" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="882" min="882" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="883" min="883" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="884" min="884" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="885" min="885" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="886" min="886" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="887" min="887" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="888" min="888" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="889" min="889" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="890" min="890" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="891" min="891" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="892" min="892" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="893" min="893" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="894" min="894" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="895" min="895" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="896" min="896" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="897" min="897" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="898" min="898" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="899" min="899" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="900" min="900" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="901" min="901" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="902" min="902" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="903" min="903" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="904" min="904" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="905" min="905" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="906" min="906" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="907" min="907" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="908" min="908" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="909" min="909" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="910" min="910" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="911" min="911" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="912" min="912" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="913" min="913" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="914" min="914" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="915" min="915" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="916" min="916" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="917" min="917" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="918" min="918" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="919" min="919" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="920" min="920" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="921" min="921" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="922" min="922" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="923" min="923" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="924" min="924" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="925" min="925" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="926" min="926" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="927" min="927" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="928" min="928" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="929" min="929" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="930" min="930" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="931" min="931" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="932" min="932" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="933" min="933" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="934" min="934" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="935" min="935" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="936" min="936" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="937" min="937" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="938" min="938" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="939" min="939" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="940" min="940" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="941" min="941" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="942" min="942" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="943" min="943" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="944" min="944" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="945" min="945" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="946" min="946" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="947" min="947" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="948" min="948" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="949" min="949" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="950" min="950" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="951" min="951" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="952" min="952" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="953" min="953" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="954" min="954" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="955" min="955" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="956" min="956" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="957" min="957" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="958" min="958" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="959" min="959" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="960" min="960" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="961" min="961" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="962" min="962" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="963" min="963" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="964" min="964" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="965" min="965" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="966" min="966" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="967" min="967" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="968" min="968" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="969" min="969" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="970" min="970" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="971" min="971" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="972" min="972" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="973" min="973" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="974" min="974" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="975" min="975" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="976" min="976" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="977" min="977" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="978" min="978" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="979" min="979" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="980" min="980" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="981" min="981" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="982" min="982" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="983" min="983" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="984" min="984" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="985" min="985" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="986" min="986" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="987" min="987" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="988" min="988" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="989" min="989" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="990" min="990" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="991" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="992" min="992" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="993" min="993" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="994" min="994" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="995" min="995" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="996" min="996" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="997" min="997" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="998" min="998" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="999" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1000" min="1000" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1001" min="1001" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1002" min="1002" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="1003" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="1004" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="1005" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1006" min="1006" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1007" min="1007" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1008" min="1008" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1009" min="1009" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1010" min="1010" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1011" min="1011" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="1012" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="1013" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="1015" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1016" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="1017" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="1018" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="1019" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="1020" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1021" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1022" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1023" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="12.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -414,13 +1573,11 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" ht="51">
+      <c r="A2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="51">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -432,7 +1589,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="51">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -447,16 +1604,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="51">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="28">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -467,10 +1627,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="55">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -478,89 +1641,125 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="42">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="42">
       <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" customHeight="1" ht="42">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="42">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="42">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="51">
       <c r="A13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="51">
       <c r="A14" s="9"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="51">
       <c r="A15" s="9"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="51">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="51">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="51">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="51">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="51">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="51">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="51">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="15">
       <c r="A23" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="http://www.seo-hero.tech/"/>
+    <hyperlink ref="F12" display="https://support.google.com/webmasters/answer/9128668?hl=fr" r:id="rId2"/>
+    <hyperlink ref="F8" display="https://rootsteps.nl/en/blog/deadlinks-on-your-website-and-why-you-should-search-for-them-regularly" r:id="rId3"/>
+    <hyperlink ref="F6" display="https://color.a11y.com/Contrast/" r:id="rId4"/>
+    <hyperlink ref="F7" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId5"/>
+    <hyperlink ref="F10" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId6"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/sources/Modèle-audit-SEO.xlsx
+++ b/sources/Modèle-audit-SEO.xlsx
@@ -168,6 +168,39 @@
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents</t>
   </si>
+  <si>
+    <t>FichierJ</t>
+  </si>
+  <si>
+    <t>Fichier JS et CSS pas optimisés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les fichiers peuvent être compresser pour diminuer la vitesse de chargement du site </t>
+  </si>
+  <si>
+    <t>Mot clés pas optimisés, doublon de mots, et hors sujet Div “keyword” invisible dans le body pour le réferencement qui ne sert à rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mot clés pas optimisés (doublon de mots, et hors sujet.)          Div “keyword” invisible dans le body pour le réferencement qui ne sert à rien</t>
+  </si>
+  <si>
+    <t>Pas de titre et de description dans les meta du site  langue du site parametrée sur “Default” ce qui ne sert à rien ici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours rendre le texte lisible pour les bots d'indexation, donc ne pas afficher un texte sur une image car il ne sera pas pris en compte pour l'indexation du site </t>
+  </si>
+  <si>
+    <t>Metadonnés du site</t>
+  </si>
+  <si>
+    <t>Opacité des  textes</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/crawling/special-tags?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -276,6 +309,11 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -325,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,6 +457,10 @@
       <protection/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
       <protection/>
     </xf>
@@ -501,8 +543,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,8 +552,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48"/>
-    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29"/>
-    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29"/>
+    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.2188"/>
+    <col collapsed="false" customWidth="1" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.1094"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.57"/>
@@ -1577,42 +1619,44 @@
       <c r="A2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="51">
+    <row r="3" ht="28">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="51">
+    <row r="4" ht="42">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="28">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1621,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1631,7 +1675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="55">
+    <row r="7" ht="69">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>48</v>
@@ -1658,9 +1702,11 @@
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="42">
@@ -1754,12 +1800,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="http://www.seo-hero.tech/"/>
     <hyperlink ref="F12" display="https://support.google.com/webmasters/answer/9128668?hl=fr" r:id="rId2"/>
     <hyperlink ref="F8" display="https://rootsteps.nl/en/blog/deadlinks-on-your-website-and-why-you-should-search-for-them-regularly" r:id="rId3"/>
     <hyperlink ref="F6" display="https://color.a11y.com/Contrast/" r:id="rId4"/>
     <hyperlink ref="F7" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId5"/>
     <hyperlink ref="F10" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId6"/>
+    <hyperlink ref="F4" display="https://developers.google.com/search/docs/advanced/crawling/special-tags?hl=fr" r:id="rId7"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/sources/Modèle-audit-SEO.xlsx
+++ b/sources/Modèle-audit-SEO.xlsx
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille de paragraphe </t>
+  </si>
+  <si>
+    <t>Les paragraphes sont de taille 11px ce qui est trop faible pour un affichage mobile les utilisateurs sont obligés de zoomer pour lire correctement le texte</t>
   </si>
 </sst>
 </file>
@@ -543,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,7 +1625,7 @@
       <c r="A2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="28">
+    <row r="3" ht="27">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="28">
+    <row r="5" ht="27">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="28">
+    <row r="6" ht="27">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1739,10 +1745,14 @@
     </row>
     <row r="11" customHeight="1" ht="42">
       <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>

--- a/sources/Modèle-audit-SEO.xlsx
+++ b/sources/Modèle-audit-SEO.xlsx
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Les paragraphes sont de taille 11px ce qui est trop faible pour un affichage mobile les utilisateurs sont obligés de zoomer pour lire correctement le texte</t>
+  </si>
+  <si>
+    <t>https://www.imperva.com/learn/performance/minification/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/HTML/Introduction_to_HTML/The_head_metadata_in_HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.123-reg.co.uk/blog/seo-2/broken-links-can-hurt-website/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/Media/Formats/Image_types#webp_image</t>
   </si>
 </sst>
 </file>
@@ -549,7 +561,7 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1625,7 +1637,7 @@
       <c r="A2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="27">
+    <row r="3" ht="42">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1636,6 +1648,9 @@
         <v>54</v>
       </c>
       <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" ht="42">
       <c r="A4" s="6" t="s">
@@ -1654,7 +1669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="27">
+    <row r="5" ht="28">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -1665,6 +1680,9 @@
         <v>51</v>
       </c>
       <c r="E5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" ht="27">
       <c r="A6" s="6" t="s">
@@ -1712,7 +1730,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="42">
@@ -1725,7 +1743,9 @@
       <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" customHeight="1" ht="42">
       <c r="A10" s="6" t="s">
@@ -1816,6 +1836,9 @@
     <hyperlink ref="F7" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId5"/>
     <hyperlink ref="F10" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents" r:id="rId6"/>
     <hyperlink ref="F4" display="https://developers.google.com/search/docs/advanced/crawling/special-tags?hl=fr" r:id="rId7"/>
+    <hyperlink ref="F5" display="https://www.imperva.com/learn/performance/minification/" r:id="rId8"/>
+    <hyperlink ref="F3" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Introduction_to_HTML/The_head_metadata_in_HTML" r:id="rId9"/>
+    <hyperlink ref="F9" display="https://developer.mozilla.org/en-US/docs/Web/Media/Formats/Image_types#webp_image" r:id="rId10"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/sources/Modèle-audit-SEO.xlsx
+++ b/sources/Modèle-audit-SEO.xlsx
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/Media/Formats/Image_types#webp_image</t>
+  </si>
+  <si>
+    <t>https://learnui.design/blog/mobile-desktop-website-font-size-guidelines.html</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -561,8 +567,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1633,7 +1639,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="51">
+    <row r="2" ht="15">
       <c r="A2" s="4"/>
       <c r="E2" s="5"/>
     </row>
@@ -1669,7 +1675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="28">
+    <row r="5" ht="27">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +1781,9 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" ht="42">
       <c r="A12" s="6" t="s">
@@ -1839,6 +1847,7 @@
     <hyperlink ref="F5" display="https://www.imperva.com/learn/performance/minification/" r:id="rId8"/>
     <hyperlink ref="F3" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Introduction_to_HTML/The_head_metadata_in_HTML" r:id="rId9"/>
     <hyperlink ref="F9" display="https://developer.mozilla.org/en-US/docs/Web/Media/Formats/Image_types#webp_image" r:id="rId10"/>
+    <hyperlink ref="F11" display="https://learnui.design/blog/mobile-desktop-website-font-size-guidelines.html" r:id="rId11"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
